--- a/Asset URLs.xlsx
+++ b/Asset URLs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samja\Documents\Personal\Software\TableTopSimulator\Peaks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.law\Code\Peaks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39627A86-6D3C-446C-9F73-F26C3E24C4AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE34ECF1-3BE7-4D35-BE42-47E08AE95065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="5904" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Asset</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>http://cloud-3.steamusercontent.com/ugc/1041967775049315087/94DB12ACC2308F11C0198495E77B88D891A11BBB/</t>
+  </si>
+  <si>
+    <t>http://cloud-3.steamusercontent.com/ugc/2508019305203313685/DD4E0DAE431CD0821325181D35BED41391BF3567/</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -519,19 +522,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
-    <col min="2" max="2" width="110.1796875" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="110.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -539,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -547,7 +550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -555,7 +558,7 @@
         <v>2067118903</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -563,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -571,7 +574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -579,7 +582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -587,7 +590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -595,7 +598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -603,7 +606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -611,7 +614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -619,7 +622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -627,7 +630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -635,7 +638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -643,7 +646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -651,7 +654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -659,7 +662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -667,7 +670,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -675,7 +678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -683,7 +686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -691,7 +694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -699,7 +702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -707,12 +710,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
